--- a/normativa/Anexos/L01T03C08/L01T03C08A05.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A05.xlsx
@@ -317,6 +317,150 @@
   </si>
   <si>
     <r>
+      <t>6. Latitud y longitud de georeferenciación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nota:  La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Artículo 1322º del Código Civil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">y el Parágrafo IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 157° del Código Procesal Civil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MERCADO (*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COMPETENCIA</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(6) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>No aplica en caso de nulo nivel de cobertura geográfica de servicios financieros</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Departamento y Municipio:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punto de atención financiera, ubicado en entidades públicas, empresas o negocios privados, con el objeto de prestar servicios de depósitos y retiros de cuentas, recibir pagos de créditos, pagar a funcionarios públicos, compra y venta de monedas extranjeras, pago de rentas y bonos, prestar servicios de cobranza a clientes y usuarios por cuenta de instituciones públicas o empresas privadas, así como  realizar la carga y efectivización de dinero electrónico almacenado en la billetera móvil, prestar servicios de giros y emitir órdenes de pago exigibles en el país o en el extranjero. La oficina externa podrá estar ubicada en instalaciones de una entidad privada de carácter financiero, sólo si pertenece al mismo conglomerado financiero. En municipios con nivel bajo o nulo de cobertura geográfica de servicios financieros,  la oficina externa podrá, además otorgar créditos y abrir cuentas en caja de ahorro o cuentas de pago.
+</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <i/>
         <vertAlign val="superscript"/>
@@ -335,155 +479,21 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6. Latitud y longitud de georeferenciación</t>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nota:  La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Artículo 1322º del Código Civil </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">y el Parágrafo IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 157° del Código Procesal Civil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MERCADO (*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>COMPETENCIA</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (6)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(6) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>No aplica en caso de nulo nivel de cobertura geográfica de servicios financieros</t>
-    </r>
-  </si>
-  <si>
-    <t>ANEXO 5: FORMULARIO PARA APERTURA, CIERRE O TRASLADO OFICINA EXTERNA EN MUNICIPIOS CON BAJO O NULO NIVEL DE COBERTURA GEOGRÁFICA DE SERVICIOS FINANCIEROS</t>
-  </si>
-  <si>
-    <t>1. Departamento y Municipio:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punto de atención financiera, ubicado en entidades públicas, empresas o negocios privados, con el objeto de prestar servicios de depósitos y retiros de cuentas, recibir pagos de créditos, pagar a funcionarios públicos, compra y venta de monedas extranjeras, pago de rentas y bonos, prestar servicios de cobranza a clientes y usuarios por cuenta de instituciones públicas o empresas privadas, así como  realizar la carga y efectivización de dinero electrónico almacenado en la billetera móvil, prestar servicios de giros y emitir órdenes de pago exigibles en el país o en el extranjero. La oficina externa podrá estar ubicada en instalaciones de una entidad privada de carácter financiero, sólo si pertenece al mismo conglomerado financiero. En municipios con nivel bajo o nulo de cobertura geográfica de servicios financieros,  la oficina externa podrá, además otorgar créditos y abrir cuentas en caja de ahorro o cuentas de pago.
-</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ANEXO 5: FORMULARIO PARA APERTURA, CIERRE O TRASLADO DE OFICINA EXTERNA EN MUNICIPIOS CON BAJO O NULO NIVEL DE COBERTURA GEOGRÁFICA DE SERVICIOS FINANCIEROS</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:AL33"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1387,7 @@
     </row>
     <row r="3" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -1459,7 +1469,7 @@
     </row>
     <row r="5" spans="1:38" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
@@ -1873,7 +1883,7 @@
     </row>
     <row r="15" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -2083,7 +2093,7 @@
     </row>
     <row r="20" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
@@ -2209,7 +2219,7 @@
     </row>
     <row r="23" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2584,7 +2594,7 @@
     </row>
     <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2951,7 +2961,7 @@
     </row>
     <row r="41" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -3633,7 +3643,7 @@
     </row>
     <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
@@ -3835,7 +3845,7 @@
     </row>
     <row r="62" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
@@ -4147,7 +4157,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 5
